--- a/report_ca_nhan/CẦN THƠ/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2732142.857142857</v>
+        <v>3053571.428571429</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7461142.857142857</v>
+        <v>7852571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7781142.857142857</v>
+        <v>8172571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,35 +1306,93 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>572</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Như Huỳnh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>14400000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>29400000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>20900000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N7" t="n">
-        <v>248000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>15500000</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>15900000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31400000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22900000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>288000</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1771,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="7">
@@ -1963,7 +2021,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7852571.428571429</v>
+        <v>7892571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -1993,7 +2051,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8172571.428571429</v>
+        <v>8212571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -1184,7 +1184,7 @@
         <v>0.02</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1242,7 @@
         <v>0.02</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="6">
@@ -1358,7 +1358,7 @@
         <v>0.02</v>
       </c>
       <c r="N7" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8">
@@ -1392,7 +1392,7 @@
         <v>0.18</v>
       </c>
       <c r="N8" t="n">
-        <v>288000</v>
+        <v>258000</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288000</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="7">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7892571.428571429</v>
+        <v>7862571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8212571.428571429</v>
+        <v>8182571.428571429</v>
       </c>
     </row>
   </sheetData>
